--- a/data/trans_bre/IP16A02-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP16A02-Edad-trans_bre.xlsx
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,73</t>
+          <t>-17,2</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,9</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>10,95</t>
+          <t>-4,43</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,17</t>
+          <t>6,35</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>4,57%</t>
+          <t>-34,56%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>19,14%</t>
+          <t>-1,45%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>29,01%</t>
+          <t>-12,93%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-2,86%</t>
+          <t>13,9%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-14,31; 16,56</t>
+          <t>-34,82; 1,19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,39; 22,68</t>
+          <t>-15,1; 13,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 27,25</t>
+          <t>-21,27; 11,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-18,19; 13,6</t>
+          <t>-9,31; 23,32</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-32,86; 52,77</t>
+          <t>-61,62; 2,72</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-17,62; 68,8</t>
+          <t>-34,1; 42,87</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-9,81; 98,27</t>
+          <t>-48,09; 43,19</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-39,53; 38,64</t>
+          <t>-18,52; 65,47</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-17,2</t>
+          <t>1,73</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,55</t>
+          <t>7,9</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-4,43</t>
+          <t>10,95</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,35</t>
+          <t>-1,17</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-34,56%</t>
+          <t>4,57%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,45%</t>
+          <t>19,14%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-12,93%</t>
+          <t>29,01%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>13,9%</t>
+          <t>-2,86%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-34,82; 1,19</t>
+          <t>-14,31; 16,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-15,1; 13,28</t>
+          <t>-8,39; 22,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-21,27; 11,24</t>
+          <t>-4,44; 27,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,31; 23,32</t>
+          <t>-18,19; 13,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-61,62; 2,72</t>
+          <t>-32,86; 52,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-34,1; 42,87</t>
+          <t>-17,62; 68,8</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-48,09; 43,19</t>
+          <t>-9,81; 98,27</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-18,52; 65,47</t>
+          <t>-39,53; 38,64</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP16A02-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP16A02-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-10,41</t>
+          <t>-13,15</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,23</t>
+          <t>11,43</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,14</t>
+          <t>-7,25</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,52</t>
+          <t>9,45</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-27,81%</t>
+          <t>-32,43%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,19%</t>
+          <t>29,45%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-2,99%</t>
+          <t>-18,4%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>7,13%</t>
+          <t>21,18%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-25,51; 5,37</t>
+          <t>-32,51; 7,2</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-11,48; 14,53</t>
+          <t>-4,26; 27,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-16,74; 12,89</t>
+          <t>-26,64; 12,33</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-15,65; 20,38</t>
+          <t>-14,34; 33,69</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-58,0; 18,84</t>
+          <t>-64,15; 27,79</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-26,92; 46,37</t>
+          <t>-7,93; 92,21</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-37,04; 42,51</t>
+          <t>-53,02; 41,11</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-28,19; 48,17</t>
+          <t>-26,34; 98,55</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-17,2</t>
+          <t>-12,96</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,55</t>
+          <t>-7,03</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-4,43</t>
+          <t>7,41</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,35</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-34,56%</t>
+          <t>-28,16%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-1,45%</t>
+          <t>-18,7%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-12,93%</t>
+          <t>21,38%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>13,9%</t>
+          <t>0,02%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-34,82; 1,19</t>
+          <t>-28,03; 2,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-15,1; 13,28</t>
+          <t>-20,57; 8,24</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-21,27; 11,24</t>
+          <t>-7,83; 23,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-9,31; 23,32</t>
+          <t>-16,73; 16,62</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-61,62; 2,72</t>
+          <t>-52,9; 7,86</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-34,1; 42,87</t>
+          <t>-45,09; 29,42</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-48,09; 43,19</t>
+          <t>-18,81; 95,51</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-18,52; 65,47</t>
+          <t>-31,25; 43,04</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,73</t>
+          <t>-5,78</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,9</t>
+          <t>2,93</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>10,95</t>
+          <t>-9,71</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,17</t>
+          <t>18,8</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,57%</t>
+          <t>-16,26%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>19,14%</t>
+          <t>7,08%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>29,01%</t>
+          <t>-25,06%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-2,86%</t>
+          <t>43,13%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-14,31; 16,56</t>
+          <t>-25,28; 19,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,39; 22,68</t>
+          <t>-15,28; 23,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 27,25</t>
+          <t>-26,2; 7,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-18,19; 13,6</t>
+          <t>-0,25; 37,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-32,86; 52,77</t>
+          <t>-58,59; 87,27</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-17,62; 68,8</t>
+          <t>-30,92; 77,41</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-9,81; 98,27</t>
+          <t>-56,58; 25,76</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-39,53; 38,64</t>
+          <t>-0,23; 116,44</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-8,28</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,93</t>
+          <t>8,51</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,95</t>
+          <t>16,97</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,21</t>
+          <t>-9,01</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-20,08%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>7,5%</t>
+          <t>21,11%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,31%</t>
+          <t>49,58%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>5,02%</t>
+          <t>-21,65%</t>
         </is>
       </c>
     </row>
@@ -968,48 +968,156 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-18,03; 1,06</t>
+          <t>-17,31; 20,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,29; 11,5</t>
+          <t>-9,42; 30,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,67; 11,02</t>
+          <t>-4,37; 37,52</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-8,11; 12,17</t>
+          <t>-29,92; 8,69</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-38,72; 3,0</t>
+          <t>-40,22; 69,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-12,09; 33,54</t>
+          <t>-19,84; 106,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-16,06; 34,85</t>
+          <t>-11,82; 173,42</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-17,59; 30,24</t>
+          <t>-61,25; 24,86</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-8,28</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2,93</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1,95</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2,21</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-20,08%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>7,5%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>5,31%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>5,02%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-17,72; 1,46</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-4,83; 11,77</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-6,25; 10,4</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-8,96; 12,27</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-38,72; 4,05</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-11,42; 33,08</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-14,92; 33,38</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-18,4; 30,59</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>

--- a/data/trans_bre/IP16A02-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP16A02-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-32,51; 7,2</t>
+          <t>-32,36; 5,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 27,74</t>
+          <t>-3,82; 26,86</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-26,64; 12,33</t>
+          <t>-27,46; 10,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-14,34; 33,69</t>
+          <t>-15,25; 35,51</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-64,15; 27,79</t>
+          <t>-64,23; 24,99</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,93; 92,21</t>
+          <t>-8,29; 88,53</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-53,02; 41,11</t>
+          <t>-56,0; 36,51</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-26,34; 98,55</t>
+          <t>-28,88; 110,91</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-28,03; 2,76</t>
+          <t>-30,25; 1,84</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-20,57; 8,24</t>
+          <t>-19,39; 6,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-7,83; 23,84</t>
+          <t>-8,89; 22,33</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-16,73; 16,62</t>
+          <t>-16,58; 19,01</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-52,9; 7,86</t>
+          <t>-55,4; 5,18</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-45,09; 29,42</t>
+          <t>-45,77; 19,45</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-18,81; 95,51</t>
+          <t>-20,35; 85,43</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-31,25; 43,04</t>
+          <t>-29,94; 50,17</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-25,28; 19,19</t>
+          <t>-28,6; 15,67</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-15,28; 23,83</t>
+          <t>-17,27; 22,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-26,2; 7,55</t>
+          <t>-27,23; 5,75</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 37,56</t>
+          <t>0,44; 38,72</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-58,59; 87,27</t>
+          <t>-63,35; 67,47</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-30,92; 77,41</t>
+          <t>-34,15; 73,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-56,58; 25,76</t>
+          <t>-58,15; 20,95</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 116,44</t>
+          <t>1,01; 123,54</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-17,31; 20,85</t>
+          <t>-19,33; 20,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-9,42; 30,14</t>
+          <t>-13,14; 26,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 37,52</t>
+          <t>-3,14; 37,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-29,92; 8,69</t>
+          <t>-29,31; 8,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-40,22; 69,95</t>
+          <t>-41,57; 66,41</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-19,84; 106,71</t>
+          <t>-24,02; 89,64</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-11,82; 173,42</t>
+          <t>-7,65; 173,52</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-61,25; 24,86</t>
+          <t>-60,31; 23,44</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-17,72; 1,46</t>
+          <t>-17,79; 1,74</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 11,77</t>
+          <t>-5,44; 11,7</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,25; 10,4</t>
+          <t>-6,88; 11,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,96; 12,27</t>
+          <t>-8,1; 11,95</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-38,72; 4,05</t>
+          <t>-38,93; 4,92</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-11,42; 33,08</t>
+          <t>-12,77; 34,12</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-14,92; 33,38</t>
+          <t>-16,7; 35,62</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-18,4; 30,59</t>
+          <t>-16,64; 29,92</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP16A02-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP16A02-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9,45</t>
+          <t>10,79</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>21,18%</t>
+          <t>24,96%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-32,36; 5,97</t>
+          <t>-32,34; 5,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 26,86</t>
+          <t>-4,36; 27,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-27,46; 10,05</t>
+          <t>-26,79; 12,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-15,25; 35,51</t>
+          <t>-12,26; 34,77</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-64,23; 24,99</t>
+          <t>-63,87; 17,03</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-8,29; 88,53</t>
+          <t>-10,4; 91,12</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-56,0; 36,51</t>
+          <t>-56,0; 44,31</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-28,88; 110,91</t>
+          <t>-23,95; 110,44</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,02%</t>
+          <t>-1,93%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-30,25; 1,84</t>
+          <t>-30,19; 1,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-19,39; 6,33</t>
+          <t>-20,38; 5,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-8,89; 22,33</t>
+          <t>-8,33; 22,48</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-16,58; 19,01</t>
+          <t>-19,14; 17,05</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-55,4; 5,18</t>
+          <t>-55,59; 3,31</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-45,77; 19,45</t>
+          <t>-47,35; 16,43</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-20,35; 85,43</t>
+          <t>-20,28; 84,74</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-29,94; 50,17</t>
+          <t>-34,15; 42,57</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>18,8</t>
+          <t>17,86</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>43,13%</t>
+          <t>41,06%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-28,6; 15,67</t>
+          <t>-27,35; 18,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-17,27; 22,93</t>
+          <t>-17,65; 22,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-27,23; 5,75</t>
+          <t>-26,91; 5,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,44; 38,72</t>
+          <t>-1,82; 36,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-63,35; 67,47</t>
+          <t>-61,38; 84,37</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-34,15; 73,0</t>
+          <t>-34,5; 78,26</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-58,15; 20,95</t>
+          <t>-55,78; 18,08</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,01; 123,54</t>
+          <t>-2,6; 109,63</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-9,01</t>
+          <t>-18,31</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-21,65%</t>
+          <t>-43,71%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-19,33; 20,03</t>
+          <t>-18,71; 19,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-13,14; 26,24</t>
+          <t>-10,25; 27,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 37,57</t>
+          <t>-4,25; 37,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-29,31; 8,07</t>
+          <t>-41,3; 2,83</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-41,57; 66,41</t>
+          <t>-43,43; 66,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-24,02; 89,64</t>
+          <t>-21,79; 94,53</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-7,65; 173,52</t>
+          <t>-10,33; 174,73</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-60,31; 23,44</t>
+          <t>-82,43; 3,46</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,21</t>
+          <t>-3,72</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>5,02%</t>
+          <t>-8,46%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-17,79; 1,74</t>
+          <t>-18,03; 1,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,44; 11,7</t>
+          <t>-5,29; 11,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,88; 11,1</t>
+          <t>-6,67; 11,02</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,1; 11,95</t>
+          <t>-22,03; 7,81</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-38,93; 4,92</t>
+          <t>-38,72; 3,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-12,77; 34,12</t>
+          <t>-12,09; 33,54</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-16,7; 35,62</t>
+          <t>-16,06; 34,85</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-16,64; 29,92</t>
+          <t>-43,99; 18,62</t>
         </is>
       </c>
     </row>
